--- a/Data/EC/NIT-9017134105.xlsx
+++ b/Data/EC/NIT-9017134105.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA87E055-F281-481E-A016-73F9A39D0DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C202E6-E34E-4DE9-B1ED-2EC510791E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68525FCC-EEFC-4BB6-8199-E44822DBA173}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3290DB7F-AC0C-464C-A6F6-BD69D27D42D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>ALEXANDRA DAGER CRESPO</t>
   </si>
   <si>
-    <t>2506</t>
+    <t>2507</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1E01BD-5AC5-858B-B319-FB9224B3AC66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9CBFE3-C95D-A2E4-34D4-94809C220A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844DADEC-BC0A-4EF5-BFC2-E6562BB4ABCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADFAF4F-74DE-45E3-B4ED-096EFAFB1411}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
